--- a/Statistical Analysis/statistical_summary.xlsx
+++ b/Statistical Analysis/statistical_summary.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a21/miniforge3/envs/consulting/Medical_Tabular_Data/Statistical Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA5A559-BD28-A240-8071-E8BB8B7275D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{87C9ADF1-ED57-C646-8062-F94EAFE4DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{EA577E57-4BB6-0E4A-B020-0E26A35C5470}"/>
   </bookViews>
   <sheets>
     <sheet name="statistical_summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">statistical_summary!$A$1:$J$49</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
   <si>
     <t>Variable</t>
   </si>
@@ -707,6 +710,9 @@
   </si>
   <si>
     <t>0.88</t>
+  </si>
+  <si>
+    <t>normalizaton for large and different scale?</t>
   </si>
 </sst>
 </file>
@@ -1567,15 +1573,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCDA0C2-6F8C-EE42-8009-FFDF8A539347}">
-  <dimension ref="A1:J49"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1670,8 +1689,11 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1767,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1799,7 +1821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1895,7 +1917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1927,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1959,7 +1981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1991,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2055,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2151,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2215,7 +2237,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2247,7 +2269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2279,7 +2301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -2343,7 +2365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2375,7 +2397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -2407,7 +2429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -2439,7 +2461,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2471,7 +2493,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -2535,7 +2557,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -2567,7 +2589,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -2663,7 +2685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -2887,7 +2909,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -2919,7 +2941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -2983,7 +3005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -3015,7 +3037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -3047,7 +3069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -3079,7 +3101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>224</v>
       </c>
@@ -3144,6 +3166,26 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J49" xr:uid="{BFCDA0C2-6F8C-EE42-8009-FFDF8A539347}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CLlad"/>
+        <filter val="CLlca"/>
+        <filter val="CLlcx"/>
+        <filter val="CLrca"/>
+        <filter val="HLP"/>
+        <filter val="LACa"/>
+        <filter val="LACm"/>
+        <filter val="LDHa"/>
+        <filter val="LDHm"/>
+        <filter val="LDL"/>
+        <filter val="LPa"/>
+        <filter val="LVEF_dis"/>
+        <filter val="PERFl"/>
+        <filter val="TRIGL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>